--- a/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/4 BioPolymer/BioPolymerData.xlsx
+++ b/Process Analytics Course Materials 2023/advanced_datasets/4 InSillicoFormulation/4 BioPolymer/BioPolymerData.xlsx
@@ -4812,13 +4812,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF7EF8D-5C96-4FDB-9A6D-52E58F6216B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68C0A180-4EE2-4526-910B-37978C1DD517}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{275AD0ED-6E75-4B6B-BBCE-0460B673D82A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01B31959-5F8B-4A93-A4D0-707B97F79F15}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E095694-734E-4929-8B65-8240B9908C5A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894F8FC8-9096-4AE9-9BCC-EB0616B0E85E}"/>
 </file>